--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_allEEG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_allEEG_KK01.xlsx
@@ -1962,7 +1962,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
